--- a/Índice precios vivienda/ipv.xlsx
+++ b/Índice precios vivienda/ipv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3211b25e599fbfd3/Documentos/Clase/Máster/Bcol/Índice precios vivienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{570999AB-4B40-45E2-AF9A-4FF8C3CFC393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DBB64BB-64CF-4B57-85B5-92EE5BA12FE7}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{570999AB-4B40-45E2-AF9A-4FF8C3CFC393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BFC9336-5333-43B2-8C52-07C1BBA5694A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -152,6 +152,12 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -204,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -216,10 +222,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +564,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,11 +600,11 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
-        <v>123.878</v>
-      </c>
-      <c r="E2" s="7">
-        <v>122.836</v>
+      <c r="D2" s="9">
+        <v>125.598</v>
+      </c>
+      <c r="E2" s="9">
+        <v>120.476</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -610,11 +617,11 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7">
-        <v>141.12899999999999</v>
-      </c>
-      <c r="E3" s="7">
-        <v>115.41800000000001</v>
+      <c r="D3" s="9">
+        <v>145.03100000000001</v>
+      </c>
+      <c r="E3" s="9">
+        <v>113.785</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -627,15 +634,15 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7">
-        <v>121.95399999999999</v>
-      </c>
-      <c r="E4" s="7">
-        <v>126.55</v>
+      <c r="D4" s="9">
+        <v>123.31</v>
+      </c>
+      <c r="E4" s="9">
+        <v>123.379</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -644,15 +651,15 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
-        <v>122.696</v>
-      </c>
-      <c r="E5" s="7">
-        <v>139.04900000000001</v>
+      <c r="D5" s="9">
+        <v>124.01900000000001</v>
+      </c>
+      <c r="E5" s="9">
+        <v>135.82599999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -661,15 +668,15 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
-        <v>122.96299999999999</v>
-      </c>
-      <c r="E6" s="7">
-        <v>134.92599999999999</v>
+      <c r="D6" s="9">
+        <v>126.828</v>
+      </c>
+      <c r="E6" s="9">
+        <v>133.054</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -678,15 +685,15 @@
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
-        <v>122.72499999999999</v>
-      </c>
-      <c r="E7" s="7">
-        <v>142.32</v>
+      <c r="D7" s="9">
+        <v>123.26600000000001</v>
+      </c>
+      <c r="E7" s="9">
+        <v>137.63399999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -695,15 +702,15 @@
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
-        <v>118.855</v>
-      </c>
-      <c r="E8" s="7">
-        <v>135.69300000000001</v>
+      <c r="D8" s="9">
+        <v>118.807</v>
+      </c>
+      <c r="E8" s="9">
+        <v>134.02699999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -712,15 +719,15 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="7">
-        <v>128.636</v>
-      </c>
-      <c r="E9" s="7">
-        <v>129.429</v>
+      <c r="D9" s="9">
+        <v>129.00200000000001</v>
+      </c>
+      <c r="E9" s="9">
+        <v>128.446</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -729,15 +736,15 @@
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
-        <v>117.505</v>
-      </c>
-      <c r="E10" s="7">
-        <v>140.58099999999999</v>
+      <c r="D10" s="9">
+        <v>117.392</v>
+      </c>
+      <c r="E10" s="9">
+        <v>137.602</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -746,15 +753,15 @@
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
-        <v>141.69399999999999</v>
-      </c>
-      <c r="E11" s="7">
-        <v>119.621</v>
+      <c r="D11" s="9">
+        <v>143.803</v>
+      </c>
+      <c r="E11" s="9">
+        <v>116.98</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -763,15 +770,15 @@
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="7">
-        <v>147.83799999999999</v>
-      </c>
-      <c r="E12" s="7">
-        <v>114.074</v>
+      <c r="D12" s="9">
+        <v>152.886</v>
+      </c>
+      <c r="E12" s="9">
+        <v>112.196</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -780,15 +787,15 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
-        <v>141.61000000000001</v>
-      </c>
-      <c r="E13" s="7">
-        <v>121.526</v>
+      <c r="D13" s="9">
+        <v>143.40799999999999</v>
+      </c>
+      <c r="E13" s="9">
+        <v>118.36799999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -797,15 +804,15 @@
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
-        <v>125.239</v>
-      </c>
-      <c r="E14" s="7">
-        <v>126.08799999999999</v>
+      <c r="D14" s="9">
+        <v>125.792</v>
+      </c>
+      <c r="E14" s="9">
+        <v>123.61</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -814,15 +821,15 @@
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="7">
-        <v>135.71700000000001</v>
-      </c>
-      <c r="E15" s="7">
-        <v>123.21899999999999</v>
+      <c r="D15" s="9">
+        <v>135.803</v>
+      </c>
+      <c r="E15" s="9">
+        <v>120.919</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -831,15 +838,15 @@
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
-        <v>124.286</v>
-      </c>
-      <c r="E16" s="7">
-        <v>127.012</v>
+      <c r="D16" s="9">
+        <v>124.877</v>
+      </c>
+      <c r="E16" s="9">
+        <v>124.405</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -848,15 +855,15 @@
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
-        <v>123.708</v>
-      </c>
-      <c r="E17" s="7">
-        <v>124.98099999999999</v>
+      <c r="D17" s="9">
+        <v>124.303</v>
+      </c>
+      <c r="E17" s="9">
+        <v>122.39700000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -865,15 +872,15 @@
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
-        <v>127.05200000000001</v>
-      </c>
-      <c r="E18" s="7">
-        <v>115.72799999999999</v>
+      <c r="D18" s="9">
+        <v>128.10900000000001</v>
+      </c>
+      <c r="E18" s="9">
+        <v>113.71</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -882,15 +889,15 @@
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
-        <v>123.319</v>
-      </c>
-      <c r="E19" s="7">
-        <v>131.80500000000001</v>
+      <c r="D19" s="9">
+        <v>123.83799999999999</v>
+      </c>
+      <c r="E19" s="9">
+        <v>128.23400000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -899,15 +906,15 @@
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
-        <v>118.515</v>
-      </c>
-      <c r="E20" s="7">
-        <v>138.49199999999999</v>
+      <c r="D20" s="9">
+        <v>118.8</v>
+      </c>
+      <c r="E20" s="9">
+        <v>135.80000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -916,15 +923,15 @@
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="7">
-        <v>131.86500000000001</v>
-      </c>
-      <c r="E21" s="7">
-        <v>135.227</v>
+      <c r="D21" s="9">
+        <v>133.72800000000001</v>
+      </c>
+      <c r="E21" s="9">
+        <v>133.13999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -933,15 +940,15 @@
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="7">
-        <v>116.82299999999999</v>
-      </c>
-      <c r="E22" s="7">
-        <v>141.822</v>
+      <c r="D22" s="9">
+        <v>116.874</v>
+      </c>
+      <c r="E22" s="9">
+        <v>138.137</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -950,15 +957,15 @@
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="7">
-        <v>111.84</v>
-      </c>
-      <c r="E23" s="7">
-        <v>135.45699999999999</v>
+      <c r="D23" s="9">
+        <v>111.669</v>
+      </c>
+      <c r="E23" s="9">
+        <v>133.946</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -967,15 +974,15 @@
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="7">
-        <v>129.535</v>
-      </c>
-      <c r="E24" s="7">
-        <v>136.565</v>
+      <c r="D24" s="9">
+        <v>130.011</v>
+      </c>
+      <c r="E24" s="9">
+        <v>135.19399999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -984,15 +991,15 @@
       <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
-        <v>108.535</v>
-      </c>
-      <c r="E25" s="7">
-        <v>135.17699999999999</v>
+      <c r="D25" s="9">
+        <v>108.262</v>
+      </c>
+      <c r="E25" s="9">
+        <v>133.26599999999999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1001,15 +1008,15 @@
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
-        <v>141.13300000000001</v>
-      </c>
-      <c r="E26" s="7">
-        <v>130.06800000000001</v>
+      <c r="D26" s="9">
+        <v>141.62299999999999</v>
+      </c>
+      <c r="E26" s="9">
+        <v>126.52200000000001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1018,15 +1025,15 @@
       <c r="C27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="7">
-        <v>152.40899999999999</v>
-      </c>
-      <c r="E27" s="7">
-        <v>121.621</v>
+      <c r="D27" s="9">
+        <v>153.446</v>
+      </c>
+      <c r="E27" s="9">
+        <v>118.85</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1035,11 +1042,11 @@
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="7">
-        <v>140.06700000000001</v>
-      </c>
-      <c r="E28" s="7">
-        <v>132.172</v>
+      <c r="D28" s="9">
+        <v>140.49</v>
+      </c>
+      <c r="E28" s="9">
+        <v>128.285</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1052,11 +1059,11 @@
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="7">
-        <v>121.04600000000001</v>
-      </c>
-      <c r="E29" s="7">
-        <v>125.625</v>
+      <c r="D29" s="9">
+        <v>121.866</v>
+      </c>
+      <c r="E29" s="9">
+        <v>123.154</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1069,11 +1076,11 @@
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="7">
-        <v>134.089</v>
-      </c>
-      <c r="E30" s="7">
-        <v>120.866</v>
+      <c r="D30" s="9">
+        <v>135.76900000000001</v>
+      </c>
+      <c r="E30" s="9">
+        <v>118.821</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1086,11 +1093,11 @@
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="7">
-        <v>119.151</v>
-      </c>
-      <c r="E31" s="7">
-        <v>127.745</v>
+      <c r="D31" s="9">
+        <v>119.815</v>
+      </c>
+      <c r="E31" s="9">
+        <v>124.839</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1103,11 +1110,11 @@
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="7">
-        <v>109.05200000000001</v>
-      </c>
-      <c r="E32" s="7">
-        <v>131.73099999999999</v>
+      <c r="D32" s="9">
+        <v>108.771</v>
+      </c>
+      <c r="E32" s="9">
+        <v>130.76300000000001</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1120,11 +1127,11 @@
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="7">
-        <v>131.32400000000001</v>
-      </c>
-      <c r="E33" s="7">
-        <v>132.84299999999999</v>
+      <c r="D33" s="9">
+        <v>133.709</v>
+      </c>
+      <c r="E33" s="9">
+        <v>132.273</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1137,11 +1144,11 @@
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="7">
-        <v>107.325</v>
-      </c>
-      <c r="E34" s="7">
-        <v>131.37200000000001</v>
+      <c r="D34" s="9">
+        <v>106.88800000000001</v>
+      </c>
+      <c r="E34" s="9">
+        <v>129.79</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1154,11 +1161,11 @@
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="7">
-        <v>118.952</v>
-      </c>
-      <c r="E35" s="7">
-        <v>131.202</v>
+      <c r="D35" s="9">
+        <v>119.78</v>
+      </c>
+      <c r="E35" s="9">
+        <v>129.10300000000001</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1171,11 +1178,11 @@
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="7">
-        <v>134.494</v>
-      </c>
-      <c r="E36" s="7">
-        <v>126.795</v>
+      <c r="D36" s="9">
+        <v>136.273</v>
+      </c>
+      <c r="E36" s="9">
+        <v>124.967</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1188,11 +1195,11 @@
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="7">
-        <v>116.06399999999999</v>
-      </c>
-      <c r="E37" s="7">
-        <v>134.20599999999999</v>
+      <c r="D37" s="9">
+        <v>116.76900000000001</v>
+      </c>
+      <c r="E37" s="9">
+        <v>131.614</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1205,11 +1212,11 @@
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="7">
-        <v>145.84899999999999</v>
-      </c>
-      <c r="E38" s="7">
-        <v>126.254</v>
+      <c r="D38" s="9">
+        <v>147.20599999999999</v>
+      </c>
+      <c r="E38" s="9">
+        <v>122.82599999999999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -1222,11 +1229,11 @@
       <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="7">
-        <v>149.29</v>
-      </c>
-      <c r="E39" s="7">
-        <v>119.345</v>
+      <c r="D39" s="9">
+        <v>152.477</v>
+      </c>
+      <c r="E39" s="9">
+        <v>116.90900000000001</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1239,11 +1246,11 @@
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="7">
-        <v>144.90199999999999</v>
-      </c>
-      <c r="E40" s="7">
-        <v>129.691</v>
+      <c r="D40" s="9">
+        <v>145.71799999999999</v>
+      </c>
+      <c r="E40" s="9">
+        <v>125.649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1256,11 +1263,11 @@
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="7">
-        <v>119.124</v>
-      </c>
-      <c r="E41" s="7">
-        <v>132.44</v>
+      <c r="D41" s="9">
+        <v>120.327</v>
+      </c>
+      <c r="E41" s="9">
+        <v>130.49700000000001</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1273,28 +1280,28 @@
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="7">
-        <v>141.18600000000001</v>
-      </c>
-      <c r="E42" s="7">
-        <v>132.86500000000001</v>
+      <c r="D42" s="9">
+        <v>142.84700000000001</v>
+      </c>
+      <c r="E42" s="9">
+        <v>131.02799999999999</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>14</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="7">
-        <v>116.09</v>
-      </c>
-      <c r="E43" s="7">
-        <v>134.619</v>
+      <c r="D43" s="9">
+        <v>117.235</v>
+      </c>
+      <c r="E43" s="9">
+        <v>132.36699999999999</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1307,11 +1314,11 @@
       <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="7">
-        <v>116.122</v>
-      </c>
-      <c r="E44" s="7">
-        <v>141.49700000000001</v>
+      <c r="D44" s="9">
+        <v>116.68899999999999</v>
+      </c>
+      <c r="E44" s="9">
+        <v>139.46299999999999</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1324,11 +1331,11 @@
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="7">
-        <v>123.09399999999999</v>
-      </c>
-      <c r="E45" s="7">
-        <v>137.63999999999999</v>
+      <c r="D45" s="9">
+        <v>124.117</v>
+      </c>
+      <c r="E45" s="9">
+        <v>137.005</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1341,11 +1348,11 @@
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="7">
-        <v>113.601</v>
-      </c>
-      <c r="E46" s="7">
-        <v>147.48099999999999</v>
+      <c r="D46" s="9">
+        <v>113.979</v>
+      </c>
+      <c r="E46" s="9">
+        <v>143.34200000000001</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -1358,11 +1365,11 @@
       <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="7">
-        <v>123.336</v>
-      </c>
-      <c r="E47" s="7">
-        <v>131.07400000000001</v>
+      <c r="D47" s="9">
+        <v>123.88200000000001</v>
+      </c>
+      <c r="E47" s="9">
+        <v>127.96599999999999</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -1375,11 +1382,11 @@
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="7">
-        <v>139</v>
-      </c>
-      <c r="E48" s="7">
-        <v>121.85</v>
+      <c r="D48" s="9">
+        <v>140.75800000000001</v>
+      </c>
+      <c r="E48" s="9">
+        <v>119.06399999999999</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -1392,11 +1399,11 @@
       <c r="C49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="7">
-        <v>120.122</v>
-      </c>
-      <c r="E49" s="7">
-        <v>137.709</v>
+      <c r="D49" s="9">
+        <v>120.384</v>
+      </c>
+      <c r="E49" s="9">
+        <v>134.35400000000001</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -1409,11 +1416,11 @@
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="7">
-        <v>120.45399999999999</v>
-      </c>
-      <c r="E50" s="7">
-        <v>140.953</v>
+      <c r="D50" s="9">
+        <v>121.331</v>
+      </c>
+      <c r="E50" s="9">
+        <v>137.90899999999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -1426,11 +1433,11 @@
       <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="7">
-        <v>138.78800000000001</v>
-      </c>
-      <c r="E51" s="7">
-        <v>139.87799999999999</v>
+      <c r="D51" s="9">
+        <v>140.24199999999999</v>
+      </c>
+      <c r="E51" s="9">
+        <v>137.49100000000001</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -1443,11 +1450,11 @@
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="7">
-        <v>118.34099999999999</v>
-      </c>
-      <c r="E52" s="7">
-        <v>142.965</v>
+      <c r="D52" s="9">
+        <v>119.16800000000001</v>
+      </c>
+      <c r="E52" s="9">
+        <v>138.69800000000001</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -1460,11 +1467,11 @@
       <c r="C53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="7">
-        <v>139.03800000000001</v>
-      </c>
-      <c r="E53" s="7">
-        <v>118.16800000000001</v>
+      <c r="D53" s="9">
+        <v>142.035</v>
+      </c>
+      <c r="E53" s="9">
+        <v>115.55500000000001</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -1477,11 +1484,11 @@
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="7">
-        <v>139.03800000000001</v>
-      </c>
-      <c r="E54" s="7">
-        <v>118.16800000000001</v>
+      <c r="D54" s="9">
+        <v>142.035</v>
+      </c>
+      <c r="E54" s="9">
+        <v>115.55500000000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -1494,11 +1501,11 @@
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="7">
-        <v>139.03800000000001</v>
-      </c>
-      <c r="E55" s="7">
-        <v>118.16800000000001</v>
+      <c r="D55" s="9">
+        <v>142.035</v>
+      </c>
+      <c r="E55" s="9">
+        <v>115.55500000000001</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -1511,11 +1518,11 @@
       <c r="C56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="7">
-        <v>139.00700000000001</v>
-      </c>
-      <c r="E56" s="7">
-        <v>128.49</v>
+      <c r="D56" s="9">
+        <v>139.77500000000001</v>
+      </c>
+      <c r="E56" s="9">
+        <v>124.837</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -1528,11 +1535,11 @@
       <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="7">
-        <v>139.00700000000001</v>
-      </c>
-      <c r="E57" s="7">
-        <v>128.49</v>
+      <c r="D57" s="9">
+        <v>139.77500000000001</v>
+      </c>
+      <c r="E57" s="9">
+        <v>124.837</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1545,11 +1552,11 @@
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="7">
-        <v>139.00700000000001</v>
-      </c>
-      <c r="E58" s="7">
-        <v>128.49</v>
+      <c r="D58" s="9">
+        <v>139.77500000000001</v>
+      </c>
+      <c r="E58" s="9">
+        <v>124.837</v>
       </c>
     </row>
   </sheetData>
